--- a/Datasets/Rekapitulasi_Gemini_2.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212A5F9-0177-4B8F-9A9A-B0105A29701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95767012-60A6-441C-8393-860AE424A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4309,7 +4309,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -4613,7 +4613,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6822,7 +6822,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -7100,7 +7100,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8242,7 +8242,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -8386,8 +8386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9860,7 +9860,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>139</v>

--- a/Datasets/Rekapitulasi_Gemini_2.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95767012-60A6-441C-8393-860AE424A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603323B9-E3C4-472E-A196-31AD4CAD36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,9 +1164,6 @@
     <t>PSDA - SosKer MPAB UBT</t>
   </si>
   <si>
-    <t>Intrakampus- Lorong Massa</t>
-  </si>
-  <si>
     <t>Intrakampus - Kunjungan 8EH Radio ITB</t>
   </si>
   <si>
@@ -1195,6 +1192,9 @@
   </si>
   <si>
     <t>Kekeluargaan - Syukwis Okt</t>
+  </si>
+  <si>
+    <t>Intrakampus - Lorong Massa</t>
   </si>
 </sst>
 </file>
@@ -4613,7 +4613,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B63"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4645,28 +4645,28 @@
         <v>288</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>81</v>
@@ -7100,7 +7100,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B63"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7125,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -8386,8 +8386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datasets/Rekapitulasi_Gemini_2.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603323B9-E3C4-472E-A196-31AD4CAD36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E380CAC-CB71-43CC-A208-1E6DB0AB7961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian" sheetId="1" r:id="rId1"/>
     <sheet name="Kehadiran" sheetId="3" r:id="rId2"/>
     <sheet name="Kontribusi" sheetId="4" r:id="rId3"/>
     <sheet name="Authenticator" sheetId="5" r:id="rId4"/>
+    <sheet name="Quintile" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="191">
   <si>
     <t>Nama</t>
   </si>
@@ -488,679 +489,9 @@
     <t>Komentar Kontribusi</t>
   </si>
   <si>
-    <t>Di Periode #1 ini lu masih jarang respon nih lip, bahkan kurang memperhatikan pengarahan dari KaDiv. 
-Terus juga ngga tepat waktu dalam agenda divisi, misalnya dalam hal beresin kerjaan ataupun tugas. 
-Yok lebih gacor lagi lip !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **2 dari 4** ProKer acara UBT nih, yaitu **Makrab x Dies Natalis UBT** sama **SyukWis Juli**. 
-Ayo dong lebih sering ramein acara UBT lagi, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu staff lapangan Makrab x Dies Natalis UBT, dan staff kreatif MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu sudah **Sangat Baikk** 
-Kamu sudah cukup berkontribusi dalam divisi kamu, rajin berpendapat, selalu ontime dan cukup responsif. Yang perlu ditingkatkan lagi yaitu kemampuan problem solving dan kontribusi kamu.
-Tapi overall Goodjob! Konsisten dan tingkatin terus yaaa! Semangat Alvan</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu hadir **4 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**, **Makrab x Dies Natalis UBT**, **SyukWis Juli**, **Audiensi Ketua MPAB**.. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu udah 3x aktif jadi panitia acara, yaitu staff Logistik Samara, staff logistik Syukwis April dan staff mentor MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **sangat baik!**.Kamu responsif, rajin berpendapat, dan juga turut aktif berkontribusi di divisi PSDA . 
-Tetapi ada satu hal yang perlu ditingkatkan lagi yaitu inisiatif kamu nih. Tetapi Overall sudah sangat baik. 
-**Terus Konsisten dan Semangat Terus!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu hadir **3 dari 4** ProKer acara UBT nih, yaitu **Makrab x Dies Natalis UBT**, **SyukWis Juli**, **Audiensi Ketua MPAB**.. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu staff Acara Syukwis April, dan staff keamanan MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>DI Periode #1 ini kamu dinilai sudah **Sangat Baikk** 
-Kamu cukup responsif, Ontime, memberikan atensi yang baik, dan rajin berpendapat. Kamu juga turut berkontribusi dalam proker Intrakampus. 
-Overall Goodjob! Terus konsisten dan Tetap Semangat Yaaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **2 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri** sama **SyukWis April**. 
-Ayo dong lebih sering ramein acara UBT lagi, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x sebagai **Kadiv LO** Syukwis April dan **Kabid MSDM** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, dan ontime dalam merespon,tetap jaga dan tingkatin Responsibilitynya disetiap info yang diberikan yaaa. Overall GOOD JOB!
-**Terus Konsisten dan Tetap Semangat ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu hadir **3 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**, **SyukWis April**, **Audiensi Ketua MPAB**.. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x sebagai **Staff Kreatif** Syukwis April dan **Staff Kajian** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, ontime, kamu pun aktif berkontribusi di divisi Ekstrakampus. Namun respon dan atensi kamu masih kurang nih di grup. Excellent Work!
-**Tetap Konsisten dan Semangat!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu staff Acara Samara, dan Kadiv Pubdok MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu sudah **Cukup Baikk** 
-Kamu sudah cukup berkontribusi dalam divisi kamu, rajin berpendapat, dan cukup responsif. Yang perlu ditingkatkan lagi yaitu usahain selalu ontime, dan rajin berpendapatt.
-Tapi overall Goodjob! Konsisten dan tingkatin terus yaaa! Semangat BRIANNN</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **SyukWis April**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x sebagai **Staff Logistik** Syukwis April dan **Staff Mentor** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif jadi panitia acara, yaitu staff Pubdok Malang X Kediri, Kadiv Acara Samara dan Kabid Medkominfo MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu cukup aktif, rajin berpendapat, ontime, dan aktif berkontribusi di divisi kepelatihan anggota. Meskipun belum ada kerjaan, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya! Christian**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **2 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri** sama **SyukWis April**. 
-Ayo dong lebih sering ramein acara UBT lagi, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah cukup aktif berkontribusi sebanyak 1x yaitu sebagai staff keamanan MPAB.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **sangat baik!**.Kamu selalu ontime, rajin berpendapat, dan juga turut aktif berkontribusi di divisi PSDA . 
-Tetapi ada satu hal yang perlu ditingkatkan lagi yaitu respon dan inisiatif kamu nih. Tetapi overall sudah sangat baik. 
-**Terus Konsisten dan Semangat Terus!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **2 dari 4** ProKer acara UBT nih, yaitu **Makrab x Dies Natalis UBT** sama **Audiensi Ketua MPAB**. 
-Ayo dong lebih sering ramein acara UBT lagi, sebentar lagi ada kunjungan ke UKM lain juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah cukup aktif berkontribusi sebanyak 1x yaitu sebagai Kabid Mamet MPAB.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu cukup aktif, rajin berpendapat, ontime, dan aktif berkontribusi di divisi kepelatihan anggota. Meskipun belum ada kerjaan, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya!**</t>
-  </si>
-  <si>
-    <t>Wah di periode #1 ini kamu **ngga sama sekali** ikut ProKer acara UBT nih :(( 
-Ayo dong lebih sering ramein dan bantu temen-temen UBT lagi, sebentar lagi ada kunjungan ke UKM lain juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah cukup aktif berkontribusi sebanyak 1x yaitu sebagai staff mentor MPAB.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu **sangat baik sekali!**
-Hal ini kamu tunjukkan dengan kehadiran yang tepat waktu, responsif, serta atensi kamu terhadap divisi PubDok sangat tinggi. 
-Terus konsisten! SEMANGAT DEBBY !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 1x aktif jadi panitia acara staff kreatif MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sangat sangat buagusss.. kamu sangat fast respond dan memperhatikan kerjaan divisi dengan baik. 
-kamu juga sudah tepat waktu dan kompeten dalam menyelesaikan kerjaan divisi yang diberikan. 
-Pertahanin performamu yaaa.. SEMANGAT DIAN !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Makrab x Dies Natalis UBT**. 
-Ayo dong lebih sering ramein acara UBT lagi, sebentar lagi ada kunjungan ke UKM lain juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru 1x aktif jadi panitia acara, yaitu staff mentor MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Yuk bisa yuk lebih sering partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Diandra, di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif, rajin berpendapat, ontime, dan aktif berkontribusi di divisi Inventaris. Meskipun kamu dirasa kurang memerhatikan diskusi, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu aktif berkontribusi sebanyak 1x sebagai **Staff Medik** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi yang lebih aktif di periode berikutnya yaaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu **Sangat Baikk Sekalii** 
-Kamu rajin berpendapat, responsif, tepat waktu, dan inisiatif juga berkontribusi dalam proker divisi kamu, terus tingkatin yaa kinerja kamu. 
-Seamangat teruss Edelll</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Audiensi Ketua MPAB**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x sebagai **Staff Kreatif** Syukwis April dan **Staff Keamanan** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini, kinerja lu di divisi udah cukup oke dip, dari respon dan tanggapan lu. 
-tapi soal ngotak ngatik spreadsheet, lu masih belum kebiasa banget keliatannya tuh, sambilan tanya" dan belajar aje kalem. 
-Lebih sering nongol di grup lagi yak ngobrol".</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu udah hadir **3 dari 4** ProKer acara UBT nih. Mantep dip, sering" lagi yak aktif di acara UBT. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Staff Logistik PengMas**, **Staff Transport Makrab x Dies Natalis UBT**, dan sekarang lu jadi **Kabid LogPras MPAB**. 
-Mantep kontribusinya dip dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 1x aktif jadi panitia acara staff mentor MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu **sangat baik** 
-Kamu rajin berpendapat, tepat waktu juga, dan inisiatif berkontribusi dalam proker divisi kamu, mungkin yang perlu ditingkatin lagi yaitu lebih responsif dan inisiatif lagi yaa. 
-Tapi overall udah baguss bangett. Semangat terus Farell. Tetap konsisten yaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x sebagai **Staff Transport** Malang X Kediri dan **Staff MSDM** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Perfecto!**.
-Hal ini kamu tunjukkan dengan responsif, rajin berpendapat, daninisiatif tinggi kamu di divisi PSDA inih . 
-**Terus Konsisten dan Semangat Terus!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu staff lapangan Syukwis April, dan Sekjen MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, dan ontime. Namun, respon dan atensi kamu perlu ditingkatkan lagi nih. Overall goodjob!
-**Terus Konsisten dan Semangat Terus**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu staff acara Syukwis April, dan staff kajian MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu Kadiv Logistik Samara, dan Staff Pubdok MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sangat sangat buagusss.. kamu sangat fast respond dan memperhatikan kerjaan divisi dengan baik. 
-kamu juga sudah tepat waktu dan kompeten dalam menyelesaikan kerjaan divisi yang diberikan. 
-Pertahanin performamu yaaa.. SEMANGAT GRACE !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu udah cukup aktif jadi panitia acara, yaitu staff main event Makrab x Dies Natalis UBT, staff LO SyukWis April dan staff medik MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif, rajin berpendapat, dan ontime. Namun, respon dan atensi kamu perlu ditingkatkan lagi nih. Overall goodjob!
-**Terus Konsisten dan Semangat Terus**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif jadi panitia acara, yaitu staff main event Makrab x Dies Natalis UBT, Kadiv Kreatif dan kadiv kreatif MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu cukup aktif, rajin berpendapat, ontime, dan aktif berkontribusi di divisi kepelatihan anggota. Meskipun belum ada kerjaan, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya! Yudhi**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu udah 2x aktif jadi panitia acara, yaitu ketua pelaksana Syukwis April, dan Staff Keamanan MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>DI Periode #1 ini kamu dinilai sudah **Baikk** 
-Kamu responsif, Ontime, memberikan atensi yang cukup baik, dan cukup rajin berpendapat. Kamu juga turut berkontribusi dalam proker Intrakampus. 
-Tingkatin lagi communication skill kamu dan lebih rajin berpendapat yaa. Tapi Overall Goodjob! Terus konsisten dan Tetap Semangat!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 1x sebagai **Staff Kreatif** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi yang lebih aktif di periode berikutnya yaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu hadir **2 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri** dan **SyukWis April**. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah sangat aktif berkontribusi sebanyak 3x sebagai **Staff Dekorasi** Malang X Kediri,**Staff Kreatif** Syukwis April dan **Staff MSDM** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu ilang total Jac, kaga ada kabar, kaga ada respon di grup, bahkan di PC dan ditelpon juga ga respon. 
-Kaga tau lu ada masalah ato kendala apa, tapi cobalah lebih tanggung jawab Jac. Kalo emang lagi keos banget gabisa ngurus ini itu kabarin aja atuh, pasti dibackup kok. 
-Moga moga lu balik aktif lagi kyk sebelumnya, jangan main lepas tangan ae, yg lain juga pada butuh lu</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah cukup aktif jadi panitia acara, yaitu staff games Makrab x Dies Natalis UBT, staff LO SyukWis April dan staff kajian MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini not bad lah, dari kompetensi komputasi gua percaya lu harusnya jago. 
-Tapi dalam hal interpersonal masih harus lu tonjolkan lagi, kyk komunikasi, respon, dan ngasih tanggapan. 
-Sering" nongol di grup dah ngobrol", terus juga usahakan nyusun waktu kegiatan lu.</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu baru hadir **2 dari 4** ProKer acara UBT nih Jo. Ayo dong lebih sering nongol di acara-acara UBT lagi.. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru 1x aktif berkontribusi di kepanitiaan dalam UBT, lu jadi **Staff MSDM MPAB**. 
-gua tagih ya kontribusinya nntr dan semangat berMSDM.. ditunggu kontribusi berikutnya ya lebih sering lagi dong ikut jadi panit !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif,namun kamu masih kurang rajin untuk berpendapat dan ontime dalam merespon,tetap jaga dan tingkatin Responsibilitynya disetiap info yang diberikan yaaa. GOOD JOB!
-**Terus Konsisten dan Tetap Semangat ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah sangat aktif berkontribusi sebanyak 3x sebagai **Staff Konsumsi** Malang X Kediri,**Staff Kreatif** Syukwis April dan **Staff MSDM** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, ontime, kamu pun aktif berkontribusi di divisi Ekstrakampus. Namun respon dan atensi kamu masih kurang nih di grup. Excellent Work!
-**Terus Konsisten dan Semangat Terus**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu Staff Logistik Samara, dan Staff Logpras MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Joy, di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, ontime, kamu pun aktif berkontribusi di divisi Inventaris. Excellent Work!
-**Terus Konsisten dan Semangat Terus**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu aktif berkontribusi sebanyak 1x sebagai **Staff Mentor** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi yang lebih aktif di periode berikutnya yaaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Baik!** 
-Kamu sudah cukup responsif, tepat waktu dan aktif berkontribusi dalam proker divisi kamu. Terus tingkatin lagii yaa terutama lebih inisiatif dan lebih sering lagi berpendapat. 
-Tapi overall sudah baguss. Terus konsisten dan tetap semangatt yaaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, dan ontime dalam merespon,tetap tingkatin Responsibilitynya disetiap info yang diberikan yaaa. Overall GOOD JOB!
-**Terus Konsisten dan Tetap Semangat ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah cukup aktif berkontribusi sebanyak 1x sebagai **Staff Mentor** MPAB.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah oke banget, dari respon, tanggapan, tanggung jawab, ampe kompetensi dalam ngotak ngatik spreadsheet udah mantep banget lu. 
-Palingan minus jarang" nongol di grup. Lebih sering bales di grup lah yok biar ngga diem" banget. 
-Overall lu staff MSDA yang paling gua percaya soal ngolah data dah WKWKWK, ga semua secepet lu nangkepnya (atau barangkali mereka yg ga nunjukin gatau tuh haha).</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu udah hadir **3 dari 4** ProKer acara UBT nih. Mantep Faiz, sering" lagi yak aktif di acara UBT. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Kadiv Logistik Syukwis April**, dan sekarang lu jadi **Wakil Kabid LogPras MPAB**. 
-Mantep kontribusinya faiz dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja lu di divisi cukup oke, dari beresin kerjaan ampe tepat waktu. Tapi beberapa hal kayak komunikasi dan ngasih tanggapan masih kurang tuh. 
-Bisa lah lebih sering" nongol di grup ngobrol" biar rame dan improve interpersonal lu ama temen lain juga. 
-Semangat aja lah yak, Intrakampus lumayan gaweannya haha, kalo ada kendala apa" boleh banget ngobrol" ama kadiv lu.</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu baru hadir **1 dari 4** ProKer acara UBT nih. Ayo dong lebih sering nongol di acara-acara UBT lagi.. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Staff PubDok PengMas** dan sekarang lu jadi **Staff PubDok MPAB**. 
-Makasih kontribusinya dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif jadi panitia acara, yaitu Staff Transport Malang X Kediri, Staff Logistik Samara dan Staff Mentor MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu Staff Lapangan Malang X Kediri, dan Ketua MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai **Kurang Baik**.
-Kamu masih kurang aktif di divisimu, ayo tingkatkan lagi ya responsibilitynya,sempatkan untuk stay tune meskipun dalam kesibukan lain.
-**Terus Konsisten dan Tetap Semangat ya!**</t>
-  </si>
-  <si>
-    <t>"Di Periode #1 ini kamu hadir **1 dari 4** ProKer acara UBT nih, yaitu **SyukWis April **. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**"</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 2x diantaranya sebagai **Staff Lapangan** Syukwis April dan sebagai **Staff Keamanan** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Iqbal, di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif, rajin berpendapat, dan aktif berkontribusi di divisi Inventaris. Meskipun kamu pernah ada telat, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **2 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri** dan **Audiensi Ketua MPAB**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu udah 3x aktif jadi panitia acara, yaitu Staff Logistik Malang X Kediri, Staff Logistik Syukwis April dan Staff Logpras MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif, ontime, dan aktif berkontribusi di divisi Inventaris. Meskipun kamu dirasa kurang responsif dalam diskusi, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Audiensi Ketua MPAB**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu aktif berkontribusi sebanyak 1x sebagai **Staff Logpras** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi yang lebih aktif di periode berikutnya yaaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu Staff konsumsi Malang X Kediri, dan Kabid Lapangan MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja kamu sudah **Sangat Baikk** 
-Kamu sudah cukup berkontribusi dalam divisi kamu, rajin berpendapat, selalu ontime dan cukup responsif. Yang perlu ditingkatkan lagi yaitu kemampuan problem solving dan kontribusi kamu.
-Tapi overall Goodjob! Konsisten dan tingkatin terus yaaa! Semangat Ridho</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu aktif berkontribusi sebanyak 1x sebagai **Staff mentor** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi yang lebih aktif di periode berikutnya yaaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sangat sangat buagusss.. kamu sangat fast respond dan memperhatikan kerjaan divisi dengan baik. 
-kamu juga sudah tepat waktu dan kompeten dalam menyelesaikan kerjaan divisi yang diberikan. 
-Pertahanin performamu yaaa.. SEMANGAT TAMI !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu udah 2x aktif jadi panitia acara, yaitu staff dekorasi Makrab x Dies Natalis UBT, dan staff mentor MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah sangat aktif berkontribusi sebanyak 3x sebagai **Staff Dekorasi** Malang X Kediri,**Staff Kreatif** Syukwis April dan **Staff Kajian** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja lu di divisi udh lumayan oke, lu bisa ngerjain tugas duluan dan bisa nyelesain tanpa banyak bingung" dibanding yang lain. 
-Tapi sayangnya ada kerjaan lu yang ga beres tuh ngelewat dedlen haha (udah aku backup kalem) dan soal attention bisa dibilang lu masih kurang tuh kadang dipanggil gada respon dan segala macem, termasuk respon di grup juga. 
-Lebih sering lagi lah ya nongol biar ga diem dieman aje dan gua harap jgn ilang yak sesibuk apapun di kegiatan lain. Paling ngga berkabar aja, aku pasti ngerti dan maklumin lah.</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu baru hadir **2 dari 4** ProKer acara UBT nih Najwa. Ayo dong lebih sering nongol di acara-acara UBT lagi.. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Staff Main Event Makrab x Dies Natalis UBT**, **Sekretaris Syukwis April**, dan sekarang lu jadi **Kadiv Keamanan MPAB**. 
-Mantep kontribusinya Najwa dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baikk** 
-Kamu sangat responsif, Ontime, memberikan atensi yang baik, dan rajin berpendapat. Kamu juga turut berkontribusi dalam proker Intrakampus. 
-Overall Goodjob! Terus konsisten dan Tetap Semangat Yaaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 1x sebagai **Kadiv Sekretaris** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu cukup aktif, rajin berpendapat, ontime, dan aktif berkontribusi di divisi kepelatihan anggota. Meskipun belum ada kerjaan, tapi overall goodjob!
-**Terus Konsisten dan Semangat Terus ya! Nael**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 1x sebagai **Staff Keamanan** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>"Di Periode #1 ini kamu dinilai sudah **Cukup Baik!**.
-Kamu aktif, rajin berpendapat, dan beratensi. Namun, respon dan ketepatan waktu kamu perlu ditingkatkan lagi nih. Overall goodjob!
-**Terus Konsisten dan Semangat Terus**"</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif jadi panitia acara, yaitu Staff Lapangan Malang X Kediri, dan Staff Logpras MPAB UBT
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Baik!**.
-Kamu aktif, rajin berpendapat, dan sudah baik dalam merespon. Namun yang perlu ditingkatkan lagi yaitu ontime nya yaa, dan lebih inisiatif lagi.dalam bertugas 
-Tapi overall udah bagus kpkk. Tingkatin lagii, terus konsisiten dan Tetap Semangat yaaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu baru aktif berkontribusi sebanyak 1x sebagai **Staff Mentor** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi lebih aktif di periode berikutnya yaa :(</t>
-  </si>
-  <si>
-    <t>"Di Periode #1 ini kamu hadir **3 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**, **SyukWis April**, **Audiensi Ketua MPAB**.. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**"</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah sangat aktif berkontribusi sebanyak 4x sebagai **Staff (Sekretaris 2)** Malang X Kediri,**Staff Acara** Samara,**Staff Acara** Syukwis April dan **Staff Pubdok** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-GOOD JOB! Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kinerja lu di divisi paling bagus di antara semua staff MSDA, ga kaget lah ya wkwk. 
-Dari respon dan tanggapan udah jelas lu yang paling aktif, beresin kerjaan paling gece, paling banyak ngecover kerjaan orang, paling paling muncul lah. 
-Cuma di beberapa hal aja lu masih rada bingung kadang. Mau ngucapin thankyou juga sih khusus buat lu salah satu yang bisa ngeramein MSDA karena staff yang lain pada pendiem gitu orangnya gada yang bisa diajak ngobrol banget. Gudlak deh ya buat berikut"nya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu udah hadir **3 dari 4** ProKer acara UBT nih. Mantep Put, sering" lagi yak aktif di acara UBT. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Staff Kreatif Syukwis April**, dan sekarang lu jadi **Staff MSDM MPAB**. 
-Mantep kontribusinya Put dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah cukup oke fachry, dari yang awalnya gua kira lu bakal pasif karna ga secara langsung pengen join MSDA kan haha. 
-tapi oke lah ga nyesel gua narik lu. Dari beresin kerjaan ampe attention lu udah oke, paling kurang tepat waktu ama jarang respon nongol di grup ae. 
-Sering" lah ya nongol di grup ngobrol" biar rame, btw masih ada kerjaan ngerekap pendataan anggota nntr, mangat yo.</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu baru hadir **1 dari 4** ProKer acara UBT nih Jo. Ayo dong lebih sering nongol di acara-acara UBT lagi.. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru 1x aktif berkontribusi di kepanitiaan dalam UBT, lu jadi **Staff Medik MPAB**. 
-gua tagih ya nntr kontribusinya di MPAB dan semangat bermedik yo walaupun keos tapi seru lah haha.. ditunggu kontribusi berikutnya ya lebih sering lagi dong ikut jadi panit !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu hadir **3 dari 4** ProKer acara UBT nih, yaitu **Malang X Kediri**, **SyukWis April**, dan **Audiensi Ketua MPAB**.. 
-Jangan bosen terus ramein acara UBT lagi yah!, bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah sangat aktif berkontribusi sebanyak 3x diantaranya sebagai **Staff Transport** Malang X Kediri,**Staff Logistik** Syukwis April, **Kadiv Mentor** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>DI Periode #1 ini kamu dinilai sudah **Sangat Baikk** 
-Kamu sangat responsif, Ontime, memberikan atensi yang baik, dan rajin berpendapat. Kamu juga turut berkontribusi dalam proker Intrakampus. 
-Overall Goodjob! Terus konsisten dan Tetap Semangat Yaaa</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru hadir **1 dari 4** ProKer acara UBT nih, yaitu **Syukwis April**. 
-Ayo dong lebih sering ramein acara UBT lagi :( , bentar lagi ada kunjungan ke UKM juga. 
-**JANGAN LUPA IKUT YAAA !!!**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah aktif berkontribusi sebanyak 1x sebagai **Staff MSDM** MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi lebih aktif di periode berikutnya yaa :(</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu dinilai masih kurang aktif nih, dari hal tepat waktu, ngasih respon ampe tanggapan. 
-Bisa lah lebih sering nongol lagi hayu dan improve interpersonal skill lu, apalagi Intrakampus bakal berurusan dengan kegiatan luar UBT tuh. 
-Semangat yak buat ke depannya..</t>
-  </si>
-  <si>
-    <t>Di Periode #1 lu baru hadir **2 dari 4** ProKer acara UBT nih. Ayo dong lebih sering nongol di acara-acara UBT lagi.. 
-Bentar lagi ada ketemuan bareng UKM lain **JANGAN LUPA LU IKUT YA**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 2x aktif berkontribusi di kepanitiaan dalam UBT, lu pernah jadi **Staff Acara PengMas** dan sekarang lu jadi **Staff Keamanan MPAB**. 
-Makasih kontribusinya dan semangat yak ber-MPAB.. ditunggu kontribusi berikutnya !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu sudah cukup aktif berkontribusi sebanyak 2x sebagai **Staff Logistik** Malang X Kediri,dan **Kadiv Medik** MPAB UBT.
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya..."</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu dinilai udah mantep buanget, dari beresin kerjaan, ngasih respon, tanggapan, ampe merhatiin semuanya batas atas. 
-Semangat terus yak buat ke depannya..</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu baru 1x aktif berkontribusi di kepanitiaan dalam UBT, lu jadi **Staff Mentor MPAB**. 
-Nanti ditagih ya kontribusinya di MPAB dan semangat ber-Mentor bertemu dengan maba" ngeselin.. ditunggu kontribusi berikutnya ya lebih sering lagi dong ikut jadi panit !!</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini kamu dinilai sudah **Sangat Baik!**.
-Kamu aktif, rajin berpendapat, ontime, kamu suka merespon dengan baik dan atensi kamu keren. Perfect!
-**Terus Konsisten dan Semangat Terus**</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu selalu aktif jadi panitia acara, yaitu Staff Konsumsi Malang X Kediri, Staff Acara Samara, Kadiv Bendahara Syukwis April dan Kadiv Bendaraha MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif jadi panitia acara, yaitu Staff Dekorasi Malang X Kediri, Staff LO Syukwis April dan Staff MSDM MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
-    <t>Di Periode #1 ini lu udah 3x aktif jadi panitia acara, yaitu Staff Pubdok Malang X Kediri, Staff Pubdok Samara dan Staff Pubdok MPAB UBT. 
-**Makasih atas kontribusinya** dan semangat dalam menggerakkan MPAB untuk UBT yang lebih baik. 
-Ditunggu partisipasi aktif di periode berikutnya...</t>
-  </si>
-  <si>
     <t>Komentar Total</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>**CONGRATSS SALMAAA !!!**  
-Untuk Periode #1 kamu yang terpilih sebagai **Best Staff BPH**. Selain itu kamu juga massa UBT yang **paling berkontribusi** di kepanitiaan UBT lho..  
-MAKASIIHHH UDAH AKTIF BANGET DI UBT !! Semoga waktu dan tenaga yang kamu korbanin bisa bermanfaat bagi kamu, kita, dan juga UBT.  
-Tunggu chat dari MSDA ya.. karena ada sedikit reward yeayy  
-Ohyaa, kamu juga bisa akses sertifikat kamu di bawah ini:  
-[Sertifikat Best Staff BPH](https://drive.google.com/file/d/1h0EFqOD7_YIMpRwWDZ5f2QI1FLqmXWlU/view?usp=sharing)  
-[Sertifikat Ter-Panit](https://drive.google.com/file/d/1FZH6P2jU5QsYCuL8Jg-TvxU8Cu_8YKCB/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t>**CONGRATSS ALVAN !!!**  
-Untuk Periode #1 ini lu adalah massa UBT yang **anti absen** dalam acara UBT. Makasihh yak udah rajin-rajin di UBT, semoga waktu dan tenaga yang lu korbanin bisa bermanfaat bagi lu, kita, dan juga UBT.  
-Yok ramein acara UBT yang lain lagi di periode berikutnya !!  
-Ohyaa, lu bisa akses sertifikat lu di [sini ya..](https://drive.google.com/file/d/16RS8nHcw03VUavc7zlTZMZUYlMPiBbur/view?usp=drive_link)</t>
-  </si>
-  <si>
     <t>PSDA - SosKer MPAB UBT</t>
   </si>
   <si>
@@ -1195,6 +526,129 @@
   </si>
   <si>
     <t>Intrakampus - Lorong Massa</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>penilaian</t>
+  </si>
+  <si>
+    <t>kehadiran</t>
+  </si>
+  <si>
+    <t>kontribusi</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kinerja kamu di divisi mayan drop nih. Ayo dong lebih serius lagi !!  
+Kalau sibuk hal lain, jangan lupa kabar" ke KaDiv atau PJ ya, jangan main tinggal pliss..
+YOK BISA YOK !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kinerja kamu di divisi agak turun nih. Ayo dong lebih gacor lagi !!  
+Kalau sibuk hal lain, jangan lupa berkabar ke KaDiv atau PJ ya, jangan main tinggal pliss..  
+YOK BISA YOK !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kinerja kamu di divisi not bad lah.. Sering-sering silahturami gih ama KaDiv, sharing-sharing kalo ada kendala.  
+Ditunggu berikutnya lebih 🔥 ya !! YOK BISA YOK !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kinerja kamu di divisi udah mantap wahai para kage dan warga naruto. Diharap ke depannya lebih baik lagi ya !!  
+TERIMA KASIH BANTUANNYA UNTUK DIVISI !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kinerja kamu di divisi udah almost perfect wahai para kage dan warga naruto. Tetap berikan yang terbaik terus yaa !!  TERIMA KASIH BANTUANNYA UNTUK DIVISI !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu jarang buanget hadir di proker acara UBT nih. Ayo dong ikutan acara-acara, balikin lagi momen-momen bersama UBT lagi !!  
+Jangan lupa kamu masih bagian dari UBT, kamu masih diterima di sini, jangan sungkan untuk hadir yaa !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu masih jarang hadir di proker acara UBT nih. Ayo dong ikutan acara-acara, balikin lagi momen-momen bersama UBT lagi !!  
+Jangan lupa kamu masih bagian dari UBT, kamu masih diterima di sini, jangan sungkan untuk hadir yaa !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu udah cukup meramaikan proker acara-acara UBT nih, TAPI masih bisa lebih sering lagi nih..  
+YOK YOK !! Kamu masih bagian dari UBT, banyakin lagi momen-momen bersama UBT !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu bisa dibilang cukup sering hadir dalam proker acara-acara UBT..  
+Next masih ada acara-acara lagi nih, JANGAN LUPA ikut ngeramein yaa.  
+Yok banyakin #UBTMoment !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu udah paling sering hadir dir dirr dalam proker acara UBT !!  
+TERIMA KASIH udah ngeramein acara-acara ini..  
+Yok banyakin lagi #UBTMoment !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu jarang keliatan lagi masa, yok balik lagi sini.. UBT butuh kamu nih !!  
+Karena udah diawali dengan proses yang baik, yok beresin sampai ujung juga diakhiri dengan proses yang baik !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu udah cukup banyak membantu keberjalanan acara UBT !!  
+Apresiasi dan Terima Kasih yaa buat kalian…  
+Jangan bosen-bosen untuk UBT yeaa !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu udah beberapa kali membantu keberjalanan acara UBT !!  
+Apresiasi dan Terima Kasih yaa buat kalian…  
+Jangan bosen-bosen untuk UBT yeaa !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu mulai jarang ngepanit acara UBT lagi nih.. Yok boleh kali paling ngga semangat meng-MPAB !!  
+Karena udah diawali dengan proses yang baik, yok beresin sampai ujung juga diakhiri dengan proses yang baik !!</t>
+  </si>
+  <si>
+    <t>Di Periode #2 ini, kamu udah sangat membantu keberjalanan acara UBT !! Engga cuma ngepanit MPAB aja, tapi juga sedia bantu acara wisok kemarin.. 
+Apresiasi dan Terima Kasih buat kalian..  
+Jangan bosen-bosen untuk UBT yeaa !!</t>
+  </si>
+  <si>
+    <t>Yok bisa kali nih lebih semangat lagi untuk UBT, siapa tau dapat jersey gratis di periode berikutnya !!
+Tetap semangat meng-MPAB wahai warga konoha semuanya !!</t>
+  </si>
+  <si>
+    <t>THANKYOUUU kawan kawan konoha untuk Periode ini !!  
+Barangkali salah satu dari kalian bakal dapat jersey gratis periode berikutnya..  
+Tetap semangat meng-MPAB yaa kage-kage dan naruto !!</t>
+  </si>
+  <si>
+    <t>THANKYOUUU kawan kawan konoha untuk Periode ini !!  
+Tetap semangat meng-MPAB yaa kage-kage dan naruto !!  
+Extra Credit:  
+SELAMAT SELIMIT MAS !!  
+[Best Staff Nih Ye..](https://drive.google.com/file/d/1zfOeSWk_Iu_LJBD8BriyvwN1q843Iqrd/view?usp=drive_link)  
+[Wadoh Borong](https://drive.google.com/file/d/1bqcD-iFXYzvMgeNFxc4EleVQqiUNKe7r/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <t>THANKYOUUU kawan kawan konoha untuk Periode ini !!  
+Barangkali salah satu dari kalian bakal dapat jersey gratis periode berikutnya..  
+Tetap semangat meng-MPAB yaa kage-kage dan naruto !!  
+Extra Credit:  
+SELAMAT SELIMIT BANG !!  
+[Hadirr terus abang](https://drive.google.com/file/d/1D9GjNdmFJdsV5rfESNNkq_wApasogmbM/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <t>THANKYOUUU kawan kawan konoha untuk Periode ini !!  
+Barangkali salah satu dari kalian bakal dapat jersey gratis periode berikutnya..  
+Tetap semangat meng-MPAB yaa kage-kage dan naruto !!  
+Extra Credit:  
+SELAMAT SELIMIT MAS !!  
+[Siap hokage](https://drive.google.com/file/d/1ujpmEBSC9wth8mL-cRFLKjdbbG3R3v9t/view?usp=drive_link)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1691,6 +1145,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2049,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B63"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4642,31 +4102,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>81</v>
@@ -7099,8 +6559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7125,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -8386,8 +7846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8422,7 +7882,7 @@
         <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8439,19 +7899,19 @@
         <v>62.048111110000001</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -8465,16 +7925,16 @@
         <v>69.975333329999998</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8491,19 +7951,19 @@
         <v>73.941999999999993</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8517,16 +7977,16 @@
         <v>50.192166669999999</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8543,16 +8003,16 @@
         <v>67.424499999999995</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8569,16 +8029,16 @@
         <v>62.574222220000003</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8595,16 +8055,16 @@
         <v>62.03838889</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8621,16 +8081,16 @@
         <v>65.318222219999996</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -8650,13 +8110,13 @@
         <v>171</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8673,16 +8133,16 @@
         <v>66.222388890000005</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -8699,16 +8159,16 @@
         <v>29.638000000000002</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -8725,19 +8185,19 @@
         <v>26.577833330000001</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -8751,19 +8211,19 @@
         <v>47.591500000000003</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8777,16 +8237,16 @@
         <v>45.841500000000003</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8803,16 +8263,16 @@
         <v>57.204611110000002</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8829,19 +8289,19 @@
         <v>58.709277780000001</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8855,19 +8315,19 @@
         <v>50.186583329999998</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -8881,16 +8341,16 @@
         <v>50.9435</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -8907,19 +8367,19 @@
         <v>60.282555559999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -8933,19 +8393,19 @@
         <v>31.488055559999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -8959,19 +8419,19 @@
         <v>45.334222220000001</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -8985,19 +8445,19 @@
         <v>54.55572222</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -9011,19 +8471,19 @@
         <v>53.455222220000003</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -9037,19 +8497,19 @@
         <v>53.0745</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -9063,19 +8523,19 @@
         <v>44.076916670000003</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -9089,19 +8549,19 @@
         <v>64.091499999999996</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -9115,19 +8575,19 @@
         <v>15.288</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -9141,19 +8601,19 @@
         <v>49.991166669999998</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -9167,19 +8627,19 @@
         <v>39.086277780000003</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -9193,19 +8653,19 @@
         <v>39.105722219999997</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -9219,19 +8679,19 @@
         <v>48.029000000000003</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -9245,16 +8705,16 @@
         <v>50.9435</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -9271,19 +8731,19 @@
         <v>66.335166670000007</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -9297,19 +8757,19 @@
         <v>57.441333329999999</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -9323,16 +8783,16 @@
         <v>24.79633333</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -9349,19 +8809,19 @@
         <v>55.168222219999997</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -9375,19 +8835,19 @@
         <v>83.269166670000004</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -9401,19 +8861,19 @@
         <v>26.389055559999999</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -9427,19 +8887,19 @@
         <v>44.695999999999998</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -9453,19 +8913,19 @@
         <v>39.1755</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -9479,19 +8939,19 @@
         <v>81.281777779999999</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -9505,19 +8965,19 @@
         <v>47.39533333</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -9531,19 +8991,19 @@
         <v>54.695</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -9557,19 +9017,19 @@
         <v>64.091499999999996</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -9583,19 +9043,19 @@
         <v>39.607944439999997</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -9609,16 +9069,16 @@
         <v>66.992166670000003</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -9635,19 +9095,19 @@
         <v>30.346</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -9661,19 +9121,19 @@
         <v>15.288</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -9687,19 +9147,19 @@
         <v>48.764444439999998</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -9713,19 +9173,19 @@
         <v>61.363999999999997</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -9739,19 +9199,19 @@
         <v>54.314083330000003</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -9765,19 +9225,19 @@
         <v>76.886111110000002</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -9791,19 +9251,19 @@
         <v>51.126944440000003</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -9817,16 +9277,16 @@
         <v>54.796444440000002</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -9843,19 +9303,19 @@
         <v>49.962000000000003</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -9869,19 +9329,19 @@
         <v>34.84566667</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -9895,16 +9355,16 @@
         <v>87.122500000000002</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -9921,16 +9381,16 @@
         <v>35.907111110000002</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -9947,19 +9407,19 @@
         <v>59.963999999999999</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="288" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -9973,19 +9433,19 @@
         <v>86.971000000000004</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -9999,19 +9459,19 @@
         <v>36.344611110000002</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -10025,20 +9485,235 @@
         <v>36.210222219999999</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF61679-DBAE-4614-8A7D-E5BE85DB0946}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="20.77734375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Penilaian!$I$2:$I$63,0.2)</f>
+        <v>0.62458333333999994</v>
+      </c>
+      <c r="C2" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kehadiran!$L$2:$L$63,0.2)</f>
+        <v>0.1111</v>
+      </c>
+      <c r="D2" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kontribusi!$F$2:$F$63,0.2)</f>
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Authenticator!$D$2:$D$63,0.2)</f>
+        <v>36.290855554000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Penilaian!$I$2:$I$63,0.4)-0.1</f>
+        <v>0.72377777780000008</v>
+      </c>
+      <c r="C3" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kehadiran!$L$2:$L$63,0.4)</f>
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kontribusi!$F$2:$F$63,0.4)</f>
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Authenticator!$D$2:$D$63,0.4)</f>
+        <v>49.003955552000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Penilaian!$I$2:$I$63,0.6)</f>
+        <v>0.88666666670000005</v>
+      </c>
+      <c r="C4" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kehadiran!$L$2:$L$63,0.6)</f>
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="D4" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kontribusi!$F$2:$F$63,0.6)</f>
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Authenticator!$D$2:$D$63,0.6)</f>
+        <v>54.776155551999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Penilaian!$I$2:$I$63,0.8)</f>
+        <v>0.98499999997999999</v>
+      </c>
+      <c r="C5" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kehadiran!$L$2:$L$63,0.8)</f>
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D5" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Kontribusi!$F$2:$F$63,0.8)</f>
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <f>_xlfn.PERCENTILE.EXC(Authenticator!$D$2:$D$63,0.8)</f>
+        <v>64.582188888000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datasets/Rekapitulasi_Gemini_2.xlsx
+++ b/Datasets/Rekapitulasi_Gemini_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fery\Desktop\Python\MSDA_UBT\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E380CAC-CB71-43CC-A208-1E6DB0AB7961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450A90F-1024-47F5-9928-420CA1B07CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="192">
   <si>
     <t>Nama</t>
   </si>
@@ -649,6 +649,9 @@
 Extra Credit:  
 SELAMAT SELIMIT MAS !!  
 [Siap hokage](https://drive.google.com/file/d/1ujpmEBSC9wth8mL-cRFLKjdbbG3R3v9t/view?usp=drive_link)</t>
+  </si>
+  <si>
+    <t>10011111001110101111</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1151,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6559,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -7846,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3656861-8987-4F0F-86B8-4AE1562777C1}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8594,8 +8600,8 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2">
-        <v>1.00111110011101E+19</v>
+      <c r="C29" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="D29">
         <v>49.991166669999998</v>
